--- a/Result/Matched_BL.xlsx
+++ b/Result/Matched_BL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C56"/>
+  <dimension ref="A1:C36"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -481,7 +481,7 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(0, 14), match='SITGLYPU191084'&gt;</t>
+          <t>['SITGLYPU191084']</t>
         </is>
       </c>
     </row>
@@ -498,7 +498,7 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(0, 14), match='KMTCSGN3373341'&gt;</t>
+          <t>['KMTCSGN3373341']</t>
         </is>
       </c>
     </row>
@@ -515,48 +515,48 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(0, 14), match='COAU7221922672'&gt;</t>
+          <t>['COAU7221922672']</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(1).xlsx</t>
+          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(2).xlsx</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>Interasia</t>
         </is>
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>['A32AA05066']</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(2).xlsx</t>
+          <t>Inv.OV-1262344(BL).xlsx</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>Interasia</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(0, 10), match='A32AA05066'&gt;</t>
+          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(3).xlsx</t>
+          <t>Inv.SLV2019000003206(BL)(1).xlsx</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
@@ -573,7 +573,7 @@
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(4).xlsx</t>
+          <t>IQF블루베리BL.xlsx</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
@@ -590,7 +590,7 @@
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(5).xlsx</t>
+          <t>Nutmeg_200514(3).xlsx</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
@@ -607,7 +607,7 @@
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(6).xlsx</t>
+          <t>OSE-KOR20088.xlsx</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
@@ -624,7 +624,7 @@
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>Inv.OV-1262344(BL).xlsx</t>
+          <t>RS CV, CD BL.xlsx</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
@@ -641,24 +641,24 @@
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>Inv.SLV2019000003206(BL)(1).xlsx</t>
+          <t>RS FG BL.xlsx</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>KMTC</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>['KMTCMUN0214178']</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>Inv.SLV2019000003206(BL)(2).xlsx</t>
+          <t>SWB YMLUM591002263 Contract N°20200081 (2020-07-0866)(1).xlsx</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
@@ -675,7 +675,7 @@
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>IQF블루베리BL.xlsx</t>
+          <t>test.xlsx</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
@@ -692,7 +692,7 @@
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(1).xlsx</t>
+          <t>WTF BL-10,11(1).xlsx</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
@@ -700,29 +700,33 @@
           <t>HYUNDAI</t>
         </is>
       </c>
-      <c r="C16" t="inlineStr"/>
+      <c r="C16" t="inlineStr">
+        <is>
+          <t>정규표현식으로 매칭 실패!</t>
+        </is>
+      </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(10).xlsx</t>
+          <t>다코타BL.xlsx</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>정규표현식으로 매칭 실패!</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(11).xlsx</t>
+          <t>레몬농축액BL.xlsx</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
@@ -739,7 +743,7 @@
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(2).xlsx</t>
+          <t>렐리시BL.xlsx</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
@@ -747,29 +751,33 @@
           <t>HYUNDAI</t>
         </is>
       </c>
-      <c r="C19" t="inlineStr"/>
+      <c r="C19" t="inlineStr">
+        <is>
+          <t>정규표현식으로 매칭 실패!</t>
+        </is>
+      </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(3).xlsx</t>
+          <t>미국산스위트콘BL.xlsx</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>정규표현식으로 매칭 실패!</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(4).xlsx</t>
+          <t>살구농축액BL.xlsx</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
@@ -786,24 +794,24 @@
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(5).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(1).xlsx</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>정규표현식으로 매칭 실패!</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(6).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(2).xlsx</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
@@ -820,7 +828,7 @@
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(7).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(3).xlsx</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
@@ -837,7 +845,7 @@
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(8).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(4).xlsx</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
@@ -854,24 +862,24 @@
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(9).xlsx</t>
+          <t>열대과일퓨레BL.xlsx</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>KMTC</t>
         </is>
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>정규표현식으로 매칭 실패!</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>OSE-KOR20088.xlsx</t>
+          <t>이금기HONGKONG-BL.xlsx</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
@@ -888,7 +896,7 @@
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>RS CV, CD BL.xlsx</t>
+          <t>이금기LA-BL.xlsx</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -905,24 +913,24 @@
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>RS FG BL.xlsx</t>
+          <t>이금기XINHUI-BL.xlsx</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>KMTC</t>
+          <t>N/A</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>&lt;re.Match object; span=(0, 14), match='KMTCMUN0214178'&gt;</t>
+          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>SWB YMLUM591002263 Contract N°20200081 (2020-07-0866)(1).xlsx</t>
+          <t>캔뚜껑(1).xlsx</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
@@ -939,7 +947,7 @@
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>SWB YMLUM591002263 Contract N°20200081 (2020-07-0866)(2).xlsx</t>
+          <t>캔뚜껑(2).xlsx</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
@@ -956,7 +964,7 @@
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>test.xlsx</t>
+          <t>타바스코BL.xlsx</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
@@ -973,7 +981,7 @@
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>WTF BL-10,11(1).xlsx</t>
+          <t>토마토페이스트BL.xlsx</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
@@ -981,12 +989,16 @@
           <t>HYUNDAI</t>
         </is>
       </c>
-      <c r="C33" t="inlineStr"/>
+      <c r="C33" t="inlineStr">
+        <is>
+          <t>정규표현식으로 매칭 실패!</t>
+        </is>
+      </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>WTF BL-10,11(2).xlsx</t>
+          <t>파비아넬리BL.xlsx</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
@@ -1003,20 +1015,24 @@
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>다코타BL.xlsx</t>
+          <t>파인애플BL.xlsx</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="C35" t="inlineStr"/>
+          <t>N/A</t>
+        </is>
+      </c>
+      <c r="C35" t="inlineStr">
+        <is>
+          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+        </is>
+      </c>
     </row>
     <row r="36">
       <c r="A36" t="inlineStr">
         <is>
-          <t>레몬농축액BL.xlsx</t>
+          <t>파인애플농축액BL.xlsx</t>
         </is>
       </c>
       <c r="B36" t="inlineStr">
@@ -1025,326 +1041,6 @@
         </is>
       </c>
       <c r="C36" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="37">
-      <c r="A37" t="inlineStr">
-        <is>
-          <t>렐리시BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B37" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="C37" t="inlineStr"/>
-    </row>
-    <row r="38">
-      <c r="A38" t="inlineStr">
-        <is>
-          <t>미국산스위트콘BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B38" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="C38" t="inlineStr"/>
-    </row>
-    <row r="39">
-      <c r="A39" t="inlineStr">
-        <is>
-          <t>밥용기.xlsx</t>
-        </is>
-      </c>
-      <c r="B39" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C39" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="40">
-      <c r="A40" t="inlineStr">
-        <is>
-          <t>살구농축액BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B40" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C40" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="41">
-      <c r="A41" t="inlineStr">
-        <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(1).xlsx</t>
-        </is>
-      </c>
-      <c r="B41" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="C41" t="inlineStr"/>
-    </row>
-    <row r="42">
-      <c r="A42" t="inlineStr">
-        <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(2).xlsx</t>
-        </is>
-      </c>
-      <c r="B42" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C42" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="43">
-      <c r="A43" t="inlineStr">
-        <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(3).xlsx</t>
-        </is>
-      </c>
-      <c r="B43" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C43" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="44">
-      <c r="A44" t="inlineStr">
-        <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(4).xlsx</t>
-        </is>
-      </c>
-      <c r="B44" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C44" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="45">
-      <c r="A45" t="inlineStr">
-        <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(5).xlsx</t>
-        </is>
-      </c>
-      <c r="B45" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C45" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="46">
-      <c r="A46" t="inlineStr">
-        <is>
-          <t>열대과일퓨레BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B46" t="inlineStr">
-        <is>
-          <t>KMTC</t>
-        </is>
-      </c>
-      <c r="C46" t="inlineStr"/>
-    </row>
-    <row r="47">
-      <c r="A47" t="inlineStr">
-        <is>
-          <t>이금기HONGKONG-BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B47" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C47" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="48">
-      <c r="A48" t="inlineStr">
-        <is>
-          <t>이금기LA-BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B48" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C48" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="49">
-      <c r="A49" t="inlineStr">
-        <is>
-          <t>이금기XINHUI-BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B49" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C49" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="50">
-      <c r="A50" t="inlineStr">
-        <is>
-          <t>캔뚜껑(1).xlsx</t>
-        </is>
-      </c>
-      <c r="B50" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C50" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="51">
-      <c r="A51" t="inlineStr">
-        <is>
-          <t>캔뚜껑(2).xlsx</t>
-        </is>
-      </c>
-      <c r="B51" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C51" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="52">
-      <c r="A52" t="inlineStr">
-        <is>
-          <t>타바스코BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B52" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C52" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="53">
-      <c r="A53" t="inlineStr">
-        <is>
-          <t>토마토페이스트BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B53" t="inlineStr">
-        <is>
-          <t>HYUNDAI</t>
-        </is>
-      </c>
-      <c r="C53" t="inlineStr"/>
-    </row>
-    <row r="54">
-      <c r="A54" t="inlineStr">
-        <is>
-          <t>파비아넬리BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B54" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C54" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="55">
-      <c r="A55" t="inlineStr">
-        <is>
-          <t>파인애플BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B55" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C55" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="56">
-      <c r="A56" t="inlineStr">
-        <is>
-          <t>파인애플농축액BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B56" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C56" t="inlineStr">
         <is>
           <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
         </is>

--- a/Result/Matched_BL.xlsx
+++ b/Result/Matched_BL.xlsx
@@ -426,7 +426,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:C36"/>
+  <dimension ref="A1:C35"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -454,24 +454,24 @@
     <row r="2">
       <c r="A2" t="inlineStr">
         <is>
-          <t>2020-06-0762(998908) MCILHENNY TB 85% ETA 8.8 BL.xlsx</t>
+          <t>2020-06-0762(998908) MCILHENNY TB 85% ETA 8.8 BL</t>
         </is>
       </c>
       <c r="B2" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CONNECTION, INT</t>
         </is>
       </c>
       <c r="C2" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>PCI00461</t>
         </is>
       </c>
     </row>
     <row r="3">
       <c r="A3" t="inlineStr">
         <is>
-          <t>2020-08-0934(JOOTG-2020159) 부도옹 ROP, US ETA 8.4 BL.xlsx</t>
+          <t>2020-08-0934(JOOTG-2020159) 부도옹 ROP, US ETA 8.4 BL</t>
         </is>
       </c>
       <c r="B3" t="inlineStr">
@@ -481,14 +481,14 @@
       </c>
       <c r="C3" t="inlineStr">
         <is>
-          <t>['SITGLYPU191084']</t>
+          <t>SITGLYPU191084</t>
         </is>
       </c>
     </row>
     <row r="4">
       <c r="A4" t="inlineStr">
         <is>
-          <t>BILL.xlsx</t>
+          <t>BILL</t>
         </is>
       </c>
       <c r="B4" t="inlineStr">
@@ -498,14 +498,14 @@
       </c>
       <c r="C4" t="inlineStr">
         <is>
-          <t>['KMTCSGN3373341']</t>
+          <t>KMTCSGN3373341</t>
         </is>
       </c>
     </row>
     <row r="5">
       <c r="A5" t="inlineStr">
         <is>
-          <t>CHECK BL(OTD-2020014)__COAU7221922672.xlsx</t>
+          <t>CHECK BL(OTD-2020014)__COAU7221922672</t>
         </is>
       </c>
       <c r="B5" t="inlineStr">
@@ -515,14 +515,14 @@
       </c>
       <c r="C5" t="inlineStr">
         <is>
-          <t>['COAU7221922672']</t>
+          <t>COAU7221922672</t>
         </is>
       </c>
     </row>
     <row r="6">
       <c r="A6" t="inlineStr">
         <is>
-          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(2).xlsx</t>
+          <t>F 14954 - Shipment Documents &amp; COA - WTF-6(2)</t>
         </is>
       </c>
       <c r="B6" t="inlineStr">
@@ -532,337 +532,333 @@
       </c>
       <c r="C6" t="inlineStr">
         <is>
-          <t>['A32AA05066']</t>
+          <t>A32AA05066</t>
         </is>
       </c>
     </row>
     <row r="7">
       <c r="A7" t="inlineStr">
         <is>
-          <t>Inv.OV-1262344(BL).xlsx</t>
+          <t>Inv.OV-1262344(BL)</t>
         </is>
       </c>
       <c r="B7" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>H &amp; FRIENDS</t>
         </is>
       </c>
       <c r="C7" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>HFIBKO900113</t>
         </is>
       </c>
     </row>
     <row r="8">
       <c r="A8" t="inlineStr">
         <is>
-          <t>Inv.SLV2019000003206(BL)(1).xlsx</t>
+          <t>IQF블루베리BL</t>
         </is>
       </c>
       <c r="B8" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>BINEX LINE</t>
         </is>
       </c>
       <c r="C8" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>CHX2004002A</t>
         </is>
       </c>
     </row>
     <row r="9">
       <c r="A9" t="inlineStr">
         <is>
-          <t>IQF블루베리BL.xlsx</t>
+          <t>Nutmeg_200514(3)</t>
         </is>
       </c>
       <c r="B9" t="inlineStr">
         <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C9" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
+          <t>KMTC</t>
+        </is>
+      </c>
+      <c r="C9" t="inlineStr"/>
     </row>
     <row r="10">
       <c r="A10" t="inlineStr">
         <is>
-          <t>Nutmeg_200514(3).xlsx</t>
+          <t>OSE-KOR20088</t>
         </is>
       </c>
       <c r="B10" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>OSE APEX</t>
         </is>
       </c>
       <c r="C10" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>OSEKOR20088</t>
         </is>
       </c>
     </row>
     <row r="11">
       <c r="A11" t="inlineStr">
         <is>
-          <t>OSE-KOR20088.xlsx</t>
+          <t>RS CV, CD BL</t>
         </is>
       </c>
       <c r="B11" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HEUNG A LINE</t>
         </is>
       </c>
       <c r="C11" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>HASLS18200400245</t>
         </is>
       </c>
     </row>
     <row r="12">
       <c r="A12" t="inlineStr">
         <is>
-          <t>RS CV, CD BL.xlsx</t>
+          <t>RS FG BL</t>
         </is>
       </c>
       <c r="B12" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>KMTC</t>
         </is>
       </c>
       <c r="C12" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>KMTCMUNO214178</t>
         </is>
       </c>
     </row>
     <row r="13">
       <c r="A13" t="inlineStr">
         <is>
-          <t>RS FG BL.xlsx</t>
+          <t>SWB YMLUM591002263 Contract N°20200081 (2020-07-0866)(1)</t>
         </is>
       </c>
       <c r="B13" t="inlineStr">
         <is>
-          <t>KMTC</t>
+          <t>YANG MING</t>
         </is>
       </c>
       <c r="C13" t="inlineStr">
         <is>
-          <t>['KMTCMUN0214178']</t>
+          <t>YMLUM591002263</t>
         </is>
       </c>
     </row>
     <row r="14">
       <c r="A14" t="inlineStr">
         <is>
-          <t>SWB YMLUM591002263 Contract N°20200081 (2020-07-0866)(1).xlsx</t>
+          <t>test</t>
         </is>
       </c>
       <c r="B14" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C14" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>FUKA00513</t>
         </is>
       </c>
     </row>
     <row r="15">
       <c r="A15" t="inlineStr">
         <is>
-          <t>test.xlsx</t>
+          <t>WTF BL-10,11(1)</t>
         </is>
       </c>
       <c r="B15" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>HYUNDAI</t>
         </is>
       </c>
       <c r="C15" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>HDMUINBU1940223</t>
         </is>
       </c>
     </row>
     <row r="16">
       <c r="A16" t="inlineStr">
         <is>
-          <t>WTF BL-10,11(1).xlsx</t>
+          <t>다코타BL</t>
         </is>
       </c>
       <c r="B16" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>BINEX LINE</t>
         </is>
       </c>
       <c r="C16" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>BCO2006034</t>
         </is>
       </c>
     </row>
     <row r="17">
       <c r="A17" t="inlineStr">
         <is>
-          <t>다코타BL.xlsx</t>
+          <t>레몬농축액BL</t>
         </is>
       </c>
       <c r="B17" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>RIJIN TOP LOGISTICS</t>
         </is>
       </c>
       <c r="C17" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>SGNPUS2006051</t>
         </is>
       </c>
     </row>
     <row r="18">
       <c r="A18" t="inlineStr">
         <is>
-          <t>레몬농축액BL.xlsx</t>
+          <t>렐리시BL</t>
         </is>
       </c>
       <c r="B18" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CONNECTION, INT</t>
         </is>
       </c>
       <c r="C18" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>PCI00474</t>
         </is>
       </c>
     </row>
     <row r="19">
       <c r="A19" t="inlineStr">
         <is>
-          <t>렐리시BL.xlsx</t>
+          <t>미국산스위트콘BL</t>
         </is>
       </c>
       <c r="B19" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>BINEX LINE</t>
         </is>
       </c>
       <c r="C19" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>CHX2001001A</t>
         </is>
       </c>
     </row>
     <row r="20">
       <c r="A20" t="inlineStr">
         <is>
-          <t>미국산스위트콘BL.xlsx</t>
+          <t>살구농축액BL</t>
         </is>
       </c>
       <c r="B20" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>XINGDA</t>
         </is>
       </c>
       <c r="C20" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>CF2018PCR0137</t>
         </is>
       </c>
     </row>
     <row r="21">
       <c r="A21" t="inlineStr">
         <is>
-          <t>살구농축액BL.xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(1)</t>
         </is>
       </c>
       <c r="B21" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CONNECTION, INT</t>
         </is>
       </c>
       <c r="C21" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>PCI00445</t>
         </is>
       </c>
     </row>
     <row r="22">
       <c r="A22" t="inlineStr">
         <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(1).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(2)</t>
         </is>
       </c>
       <c r="B22" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C22" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>FUKA00513</t>
         </is>
       </c>
     </row>
     <row r="23">
       <c r="A23" t="inlineStr">
         <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(2).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(3)</t>
         </is>
       </c>
       <c r="B23" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C23" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>NAPXF5465532</t>
         </is>
       </c>
     </row>
     <row r="24">
       <c r="A24" t="inlineStr">
         <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(3).xlsx</t>
+          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(4)</t>
         </is>
       </c>
       <c r="B24" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C24" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>NAPXF5465532</t>
         </is>
       </c>
     </row>
     <row r="25">
       <c r="A25" t="inlineStr">
         <is>
-          <t>수입포장재 BL(퀵스프레드, 케챂롤포, 캔뚜껑, 밥용기)(4).xlsx</t>
+          <t>열대과일퓨레BL</t>
         </is>
       </c>
       <c r="B25" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>KMTC</t>
         </is>
       </c>
       <c r="C25" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>DDPUS2007106</t>
         </is>
       </c>
     </row>
     <row r="26">
       <c r="A26" t="inlineStr">
         <is>
-          <t>열대과일퓨레BL.xlsx</t>
+          <t>이금기HONGKONG-BL</t>
         </is>
       </c>
       <c r="B26" t="inlineStr">
@@ -872,31 +868,31 @@
       </c>
       <c r="C26" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>JPTBUS20010018</t>
         </is>
       </c>
     </row>
     <row r="27">
       <c r="A27" t="inlineStr">
         <is>
-          <t>이금기HONGKONG-BL.xlsx</t>
+          <t>이금기LA-BL</t>
         </is>
       </c>
       <c r="B27" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>ALLSTATE INT'L FREIGHT</t>
         </is>
       </c>
       <c r="C27" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>ALO141027</t>
         </is>
       </c>
     </row>
     <row r="28">
       <c r="A28" t="inlineStr">
         <is>
-          <t>이금기LA-BL.xlsx</t>
+          <t>이금기XINHUI-BL</t>
         </is>
       </c>
       <c r="B28" t="inlineStr">
@@ -906,143 +902,126 @@
       </c>
       <c r="C28" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>GZSBBUS2001002G</t>
         </is>
       </c>
     </row>
     <row r="29">
       <c r="A29" t="inlineStr">
         <is>
-          <t>이금기XINHUI-BL.xlsx</t>
+          <t>캔뚜껑(1)</t>
         </is>
       </c>
       <c r="B29" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C29" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>NAPXF5465532</t>
         </is>
       </c>
     </row>
     <row r="30">
       <c r="A30" t="inlineStr">
         <is>
-          <t>캔뚜껑(1).xlsx</t>
+          <t>캔뚜껑(2)</t>
         </is>
       </c>
       <c r="B30" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>DANMAR LINE</t>
         </is>
       </c>
       <c r="C30" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>NAPXF5465532</t>
         </is>
       </c>
     </row>
     <row r="31">
       <c r="A31" t="inlineStr">
         <is>
-          <t>캔뚜껑(2).xlsx</t>
+          <t>타바스코BL</t>
         </is>
       </c>
       <c r="B31" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CONNECTION INTERNATIONAL</t>
         </is>
       </c>
       <c r="C31" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>PCI00486</t>
         </is>
       </c>
     </row>
     <row r="32">
       <c r="A32" t="inlineStr">
         <is>
-          <t>타바스코BL.xlsx</t>
+          <t>토마토페이스트BL</t>
         </is>
       </c>
       <c r="B32" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>CONNECTION, INT</t>
         </is>
       </c>
       <c r="C32" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>PCI00292</t>
         </is>
       </c>
     </row>
     <row r="33">
       <c r="A33" t="inlineStr">
         <is>
-          <t>토마토페이스트BL.xlsx</t>
+          <t>파비아넬리BL</t>
         </is>
       </c>
       <c r="B33" t="inlineStr">
         <is>
-          <t>HYUNDAI</t>
+          <t>SOLEIL INTERNATIONAL</t>
         </is>
       </c>
       <c r="C33" t="inlineStr">
         <is>
-          <t>정규표현식으로 매칭 실패!</t>
+          <t>S34970PUS</t>
         </is>
       </c>
     </row>
     <row r="34">
       <c r="A34" t="inlineStr">
         <is>
-          <t>파비아넬리BL.xlsx</t>
+          <t>파인애플BL</t>
         </is>
       </c>
       <c r="B34" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>H &amp; FRIENDS</t>
         </is>
       </c>
       <c r="C34" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>HFIBKO9C0161</t>
         </is>
       </c>
     </row>
     <row r="35">
       <c r="A35" t="inlineStr">
         <is>
-          <t>파인애플BL.xlsx</t>
+          <t>파인애플농축액BL</t>
         </is>
       </c>
       <c r="B35" t="inlineStr">
         <is>
-          <t>N/A</t>
+          <t>H &amp; FRIENDS</t>
         </is>
       </c>
       <c r="C35" t="inlineStr">
         <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
-        </is>
-      </c>
-    </row>
-    <row r="36">
-      <c r="A36" t="inlineStr">
-        <is>
-          <t>파인애플농축액BL.xlsx</t>
-        </is>
-      </c>
-      <c r="B36" t="inlineStr">
-        <is>
-          <t>N/A</t>
-        </is>
-      </c>
-      <c r="C36" t="inlineStr">
-        <is>
-          <t>현재 문서에서 회사 정보를 추출하는데 실패!</t>
+          <t>HFIBKO060026</t>
         </is>
       </c>
     </row>
